--- a/Analyse/Glossaire.xlsx
+++ b/Analyse/Glossaire.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1341500\Desktop\ProjSessionProgWeb2\Analyse\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="270" yWindow="510" windowWidth="24615" windowHeight="13740"/>
   </bookViews>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t xml:space="preserve">Document      :  </t>
   </si>
@@ -61,9 +66,6 @@
     <t>Utilisateur</t>
   </si>
   <si>
-    <t>Quelqu'un qui utilise l'application, possédant généralement un compte.</t>
-  </si>
-  <si>
     <t>Conférencier, Musicien, Internaute, Administrateur</t>
   </si>
   <si>
@@ -86,6 +88,61 @@
   </si>
   <si>
     <t>Salle phyisque du congrès, découpée en sections</t>
+  </si>
+  <si>
+    <t>Quelqu'un qui utilise l'application, possédant généralement un compte. Il a plusieurs rôles et ses responsabilités dépendent de ses rôles (réserver un local, supprimer des utilisateurs...)
+Ses rôles sont Conférencier, Musicien, Internaute, Administrateur</t>
+  </si>
+  <si>
+    <t>Horaire</t>
+  </si>
+  <si>
+    <t>Congrès</t>
+  </si>
+  <si>
+    <t>Kiosque</t>
+  </si>
+  <si>
+    <t>Billet</t>
+  </si>
+  <si>
+    <t>Transaction</t>
+  </si>
+  <si>
+    <t>Rapport</t>
+  </si>
+  <si>
+    <t>Tournoi</t>
+  </si>
+  <si>
+    <t>Avancement</t>
+  </si>
+  <si>
+    <t>Partie</t>
+  </si>
+  <si>
+    <t>Résultat</t>
+  </si>
+  <si>
+    <t>Conférence</t>
+  </si>
+  <si>
+    <t>Spectacle de musique</t>
+  </si>
+  <si>
+    <t>Objet qui confirme qu'un internaute est un client</t>
+  </si>
+  <si>
+    <t>Tout les paiements qui sont fait lors de l'utilisation de cette application</t>
+  </si>
+  <si>
+    <t>Entitée ambigue qui désigne les résultats d'une partie de tournoi</t>
+  </si>
+  <si>
+    <t>Une entité qui désigne un affrontement entre 2 joueurs dans les tournois</t>
+  </si>
+  <si>
+    <t>Ensemble de partie pour déterminer un vainceur parmi un grand nombre de personnes</t>
   </si>
 </sst>
 </file>
@@ -208,12 +265,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -255,7 +315,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -290,7 +350,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -503,10 +563,10 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.28515625" customWidth="1"/>
     <col min="2" max="2" width="52" customWidth="1"/>
@@ -521,7 +581,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
@@ -539,7 +599,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
@@ -555,7 +615,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
@@ -598,122 +658,156 @@
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
     </row>
-    <row r="8" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>15</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:20" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>20</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>21</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
+      <c r="A11" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
+      <c r="A12" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
+      <c r="A13" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
+      <c r="A14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
+    <row r="15" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
+      <c r="A16" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
+    <row r="17" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
+      <c r="A18" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
+    <row r="19" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
+    <row r="20" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
+      <c r="A21" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
+      <c r="A22" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
